--- a/evaluation/gdpa_medium-mast-offsets.xlsx
+++ b/evaluation/gdpa_medium-mast-offsets.xlsx
@@ -511,16 +511,16 @@
         <v>0.5631578947368421</v>
       </c>
       <c r="B5" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -531,13 +531,13 @@
         <v>49</v>
       </c>
       <c r="C6" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -545,16 +545,16 @@
         <v>0.6052631578947368</v>
       </c>
       <c r="B7" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -562,16 +562,16 @@
         <v>0.6263157894736842</v>
       </c>
       <c r="B8" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -579,16 +579,16 @@
         <v>0.6473684210526316</v>
       </c>
       <c r="B9" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -596,16 +596,16 @@
         <v>0.6684210526315789</v>
       </c>
       <c r="B10" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C10" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -613,16 +613,16 @@
         <v>0.6894736842105263</v>
       </c>
       <c r="B11" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C11" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -630,16 +630,16 @@
         <v>0.7105263157894737</v>
       </c>
       <c r="B12" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D12" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -647,16 +647,16 @@
         <v>0.7315789473684211</v>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D13" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -664,16 +664,16 @@
         <v>0.7526315789473684</v>
       </c>
       <c r="B14" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D14" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E14" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
@@ -681,16 +681,16 @@
         <v>0.7736842105263158</v>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D15" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E15" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -698,16 +698,16 @@
         <v>0.7947368421052632</v>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D16" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E16" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -715,16 +715,16 @@
         <v>0.8157894736842105</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C17" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E17" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
@@ -732,16 +732,16 @@
         <v>0.8368421052631578</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D18" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E18" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -749,16 +749,16 @@
         <v>0.8578947368421053</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D19" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E19" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
@@ -769,13 +769,13 @@
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D20" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E20" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
@@ -783,16 +783,16 @@
         <v>0.9</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
